--- a/testcases/YC_Reg_Data.xlsx
+++ b/testcases/YC_Reg_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Serno</t>
   </si>
@@ -32,67 +32,121 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Axel</t>
-  </si>
-  <si>
-    <t>Made</t>
-  </si>
-  <si>
-    <t>Axelmade@gamil.com</t>
-  </si>
-  <si>
-    <t>NL636303353</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>max@tier.com</t>
-  </si>
-  <si>
-    <t>+31676734563</t>
-  </si>
-  <si>
-    <t>sena</t>
-  </si>
-  <si>
-    <t>sena@tent.com</t>
-  </si>
-  <si>
-    <t>Axel2</t>
-  </si>
-  <si>
-    <t>Axcel3</t>
+    <t>Elie</t>
+  </si>
+  <si>
+    <t>Tanios</t>
+  </si>
+  <si>
+    <t>MarkBrom@gmail.com</t>
+  </si>
+  <si>
+    <t>NL6363033533</t>
+  </si>
+  <si>
+    <t>Mandate</t>
+  </si>
+  <si>
+    <t>madate2023+@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Parab2</t>
+  </si>
+  <si>
+    <t>AkshayParab2@gmail.com</t>
+  </si>
+  <si>
+    <t>+316767345639</t>
+  </si>
+  <si>
+    <t>Alberink</t>
+  </si>
+  <si>
+    <t>roos.al@gamil.com</t>
+  </si>
+  <si>
+    <t>+316767345631</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Brom123</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>youngcapital1@gmail.com</t>
+  </si>
+  <si>
+    <t>06445663325</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>YC</t>
+  </si>
+  <si>
+    <t>Testyc+1@gmail.com</t>
+  </si>
+  <si>
+    <t>NL6399900222</t>
   </si>
   <si>
     <t>End of data</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>@#$%</t>
+  </si>
+  <si>
+    <t>%^&amp;-+.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Name</t>
   </si>
   <si>
-    <t>^&amp;*</t>
+    <t>^&amp;*$</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>cash.com</t>
   </si>
   <si>
     <t>ash@</t>
   </si>
   <si>
-    <t>cash.com</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>@#$</t>
+    <t>#^*!$</t>
+  </si>
+  <si>
+    <t>@#%^&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>+31-630008888</t>
+  </si>
+  <si>
+    <t>....</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -110,12 +164,30 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,24 +196,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -375,6 +456,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="20.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -394,87 +478,115 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -501,24 +613,43 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5">
-        <v>32.0</v>
+      <c r="B2" s="7">
+        <v>123.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>123.0</v>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -541,26 +672,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -587,29 +734,53 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>567.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -639,24 +810,48 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
